--- a/excel/finished/wg8#高炉/8高炉操作管理日记.xlsx
+++ b/excel/finished/wg8#高炉/8高炉操作管理日记.xlsx
@@ -615,7 +615,7 @@
     <t>BF8_L2M_NetCokeTime_evt</t>
   </si>
   <si>
-    <t>BF8_L2M_CokeBatchWeight_evt</t>
+    <t>BF8_L2M_NetCokeWeight_evt</t>
   </si>
   <si>
     <t>BF8_L2C_SH_CurrentBatch_evt</t>
@@ -707,20 +707,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="14">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ ;[Red]\-0.000\ "/>
-    <numFmt numFmtId="177" formatCode="0_ ;[Red]\-0\ "/>
-    <numFmt numFmtId="178" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="181" formatCode="0.00_ ;[Red]\-0.00\ "/>
-    <numFmt numFmtId="182" formatCode="0_ "/>
-    <numFmt numFmtId="183" formatCode="0.000_ "/>
-    <numFmt numFmtId="184" formatCode="0.0_ ;[Red]\-0.0\ "/>
-    <numFmt numFmtId="185" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ ;[Red]\-0\ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ ;[Red]\-0.000\ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="181" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="183" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="184" formatCode="0.000_ "/>
+    <numFmt numFmtId="185" formatCode="0.0_ ;[Red]\-0.0\ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -782,24 +782,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,9 +803,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,9 +850,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -842,31 +887,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -881,46 +903,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,7 +947,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,25 +1037,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,7 +1073,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,43 +1097,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,73 +1109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,73 +1792,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,8 +1816,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1892,10 +1892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1904,133 +1904,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="59" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="61" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -2080,7 +2080,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2146,24 +2146,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2185,55 +2185,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="14" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2242,20 +2242,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2275,13 +2275,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="31" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="32" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,13 +2311,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2326,7 +2326,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2339,16 +2339,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="7" fillId="2" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2371,10 +2371,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="8" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="18" xfId="49" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="41" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,24 +2408,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="49" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2448,6 +2448,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2457,37 +2484,10 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2544,265 +2544,265 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2811,22 +2811,22 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2841,55 +2841,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3224,7 +3224,7 @@
   <dimension ref="A1:DK114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14:V14"/>
+      <selection activeCell="K12" sqref="K12:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16848,35 +16848,6 @@
     <mergeCell ref="AT114:AU114"/>
     <mergeCell ref="AY114:AZ114"/>
     <mergeCell ref="BA114:BB114"/>
-    <mergeCell ref="B24:D27"/>
-    <mergeCell ref="AJ30:AL54"/>
-    <mergeCell ref="AV30:AX54"/>
-    <mergeCell ref="AM30:AO31"/>
-    <mergeCell ref="B30:D54"/>
-    <mergeCell ref="H41:J42"/>
-    <mergeCell ref="K41:M42"/>
-    <mergeCell ref="H43:J44"/>
-    <mergeCell ref="K43:M44"/>
-    <mergeCell ref="H45:J46"/>
-    <mergeCell ref="K45:M46"/>
-    <mergeCell ref="H47:J48"/>
-    <mergeCell ref="K47:M48"/>
-    <mergeCell ref="H49:J50"/>
-    <mergeCell ref="K49:M50"/>
-    <mergeCell ref="H33:J34"/>
-    <mergeCell ref="K33:M34"/>
-    <mergeCell ref="H35:J36"/>
-    <mergeCell ref="K35:M36"/>
-    <mergeCell ref="H37:J38"/>
-    <mergeCell ref="K37:M38"/>
-    <mergeCell ref="H39:J40"/>
-    <mergeCell ref="K39:M40"/>
-    <mergeCell ref="H53:J54"/>
-    <mergeCell ref="K53:M54"/>
-    <mergeCell ref="H51:J52"/>
-    <mergeCell ref="K51:M52"/>
-    <mergeCell ref="H31:J32"/>
-    <mergeCell ref="K31:M32"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="BK2:BT3"/>
     <mergeCell ref="BU2:CD3"/>
@@ -16910,42 +16881,71 @@
     <mergeCell ref="K75:M76"/>
     <mergeCell ref="H77:J78"/>
     <mergeCell ref="K77:M78"/>
+    <mergeCell ref="B24:D27"/>
+    <mergeCell ref="AJ30:AL54"/>
+    <mergeCell ref="AV30:AX54"/>
+    <mergeCell ref="AM30:AO31"/>
+    <mergeCell ref="B30:D54"/>
+    <mergeCell ref="H41:J42"/>
+    <mergeCell ref="K41:M42"/>
+    <mergeCell ref="H43:J44"/>
+    <mergeCell ref="K43:M44"/>
+    <mergeCell ref="H45:J46"/>
+    <mergeCell ref="K45:M46"/>
+    <mergeCell ref="H47:J48"/>
+    <mergeCell ref="K47:M48"/>
+    <mergeCell ref="H49:J50"/>
+    <mergeCell ref="K49:M50"/>
+    <mergeCell ref="H33:J34"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="H35:J36"/>
+    <mergeCell ref="K35:M36"/>
+    <mergeCell ref="H37:J38"/>
+    <mergeCell ref="K37:M38"/>
+    <mergeCell ref="H39:J40"/>
+    <mergeCell ref="K39:M40"/>
+    <mergeCell ref="H53:J54"/>
+    <mergeCell ref="K53:M54"/>
+    <mergeCell ref="H51:J52"/>
+    <mergeCell ref="K51:M52"/>
+    <mergeCell ref="H31:J32"/>
+    <mergeCell ref="K31:M32"/>
     <mergeCell ref="H79:J80"/>
     <mergeCell ref="K79:M80"/>
+    <mergeCell ref="H113:J114"/>
+    <mergeCell ref="K113:M114"/>
+    <mergeCell ref="H111:J112"/>
+    <mergeCell ref="K111:M112"/>
+    <mergeCell ref="H109:J110"/>
+    <mergeCell ref="K109:M110"/>
+    <mergeCell ref="H107:J108"/>
+    <mergeCell ref="K107:M108"/>
+    <mergeCell ref="H105:J106"/>
+    <mergeCell ref="K105:M106"/>
+    <mergeCell ref="H103:J104"/>
+    <mergeCell ref="K103:M104"/>
+    <mergeCell ref="H101:J102"/>
+    <mergeCell ref="K101:M102"/>
+    <mergeCell ref="H99:J100"/>
+    <mergeCell ref="K99:M100"/>
+    <mergeCell ref="H97:J98"/>
+    <mergeCell ref="K97:M98"/>
+    <mergeCell ref="H95:J96"/>
+    <mergeCell ref="K95:M96"/>
+    <mergeCell ref="H93:J94"/>
+    <mergeCell ref="K93:M94"/>
+    <mergeCell ref="H91:J92"/>
+    <mergeCell ref="K91:M92"/>
+    <mergeCell ref="H89:J90"/>
+    <mergeCell ref="K89:M90"/>
+    <mergeCell ref="H87:J88"/>
+    <mergeCell ref="K87:M88"/>
+    <mergeCell ref="H85:J86"/>
+    <mergeCell ref="K85:M86"/>
+    <mergeCell ref="H83:J84"/>
+    <mergeCell ref="K83:M84"/>
     <mergeCell ref="H81:J82"/>
     <mergeCell ref="K81:M82"/>
-    <mergeCell ref="H83:J84"/>
-    <mergeCell ref="K83:M84"/>
-    <mergeCell ref="H85:J86"/>
-    <mergeCell ref="K85:M86"/>
-    <mergeCell ref="H87:J88"/>
-    <mergeCell ref="K87:M88"/>
-    <mergeCell ref="H89:J90"/>
-    <mergeCell ref="K89:M90"/>
-    <mergeCell ref="H91:J92"/>
-    <mergeCell ref="K91:M92"/>
-    <mergeCell ref="H93:J94"/>
-    <mergeCell ref="K93:M94"/>
-    <mergeCell ref="H95:J96"/>
-    <mergeCell ref="K95:M96"/>
-    <mergeCell ref="H97:J98"/>
-    <mergeCell ref="K97:M98"/>
-    <mergeCell ref="H99:J100"/>
-    <mergeCell ref="K99:M100"/>
-    <mergeCell ref="H101:J102"/>
-    <mergeCell ref="K101:M102"/>
-    <mergeCell ref="H103:J104"/>
-    <mergeCell ref="K103:M104"/>
-    <mergeCell ref="H105:J106"/>
-    <mergeCell ref="K105:M106"/>
-    <mergeCell ref="H107:J108"/>
-    <mergeCell ref="K107:M108"/>
-    <mergeCell ref="H109:J110"/>
-    <mergeCell ref="K109:M110"/>
-    <mergeCell ref="H111:J112"/>
-    <mergeCell ref="K111:M112"/>
-    <mergeCell ref="H113:J114"/>
-    <mergeCell ref="K113:M114"/>
   </mergeCells>
   <pageMargins left="0.708661417322835" right="0.708661417322835" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="8" scale="60" orientation="landscape"/>
@@ -16958,8 +16958,8 @@
   <sheetPr/>
   <dimension ref="A1:AW92"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="M43" workbookViewId="0">
-      <selection activeCell="AC56" sqref="AC56"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="Y61" sqref="Y61:AG76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -20322,14 +20322,14 @@
     <mergeCell ref="W45:W46"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="AG5:AG6"/>
+    <mergeCell ref="X2:AB3"/>
+    <mergeCell ref="AC2:AG3"/>
+    <mergeCell ref="G2:W3"/>
+    <mergeCell ref="B2:F3"/>
     <mergeCell ref="S61:X76"/>
     <mergeCell ref="Y61:AG76"/>
     <mergeCell ref="C61:H76"/>
     <mergeCell ref="I61:Q76"/>
-    <mergeCell ref="X2:AB3"/>
-    <mergeCell ref="AC2:AG3"/>
-    <mergeCell ref="G2:W3"/>
-    <mergeCell ref="B2:F3"/>
   </mergeCells>
   <pageMargins left="0.393700787401575" right="0.393700787401575" top="0.393700787401575" bottom="0.393700787401575" header="0.196850393700787" footer="0.196850393700787"/>
   <pageSetup paperSize="8" scale="65" orientation="landscape"/>
@@ -20343,7 +20343,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
